--- a/hardware_design/relays/Project Outputs for 4_channel_relay/4_channel_relay.xlsx
+++ b/hardware_design/relays/Project Outputs for 4_channel_relay/4_channel_relay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="4_channel_relay" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="163">
   <si>
     <t>Comment</t>
   </si>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,9 +916,9 @@
     <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
     <col min="11" max="11" width="7.5546875" customWidth="1"/>
     <col min="12" max="12" width="15.77734375" customWidth="1"/>
   </cols>
